--- a/config/numlet/numlet_run1.xlsx
+++ b/config/numlet/numlet_run1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,16 +10,16 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EBCC4E-FC2D-44B8-B0B2-07DC8FFF5B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet1!$C$1:$C$161</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="130" uniqueCount="18">
   <si>
     <t>number</t>
   </si>
@@ -90,13 +90,16 @@
   <si>
     <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,19 +145,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -173,7 +178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -290,7 +295,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -314,9 +319,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -340,7 +345,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -375,7 +380,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -393,7 +398,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -418,7 +423,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -449,375 +454,382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" customWidth="true"/>
+    <col min="2" max="2" width="5.5546875" customWidth="true"/>
+    <col min="3" max="3" width="7.77734375" customWidth="true"/>
+    <col min="4" max="4" width="5.5546875" customWidth="true"/>
+    <col min="5" max="5" width="5.77734375" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>7</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>7</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C17" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E17" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>9</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
+      <c r="B21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="0">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E97">
+  <autoFilter ref="C1:C161"/>
+  <sortState ref="A2:E97">
     <sortCondition ref="E2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -826,14 +838,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config/numlet/numlet_run1.xlsx
+++ b/config/numlet/numlet_run1.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="130" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="216" uniqueCount="22">
   <si>
     <t>number</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>filler</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>repeat</t>
   </si>
 </sst>
 </file>
@@ -455,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -463,11 +475,12 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="true"/>
-    <col min="2" max="2" width="5.5546875" customWidth="true"/>
-    <col min="3" max="3" width="7.77734375" customWidth="true"/>
-    <col min="4" max="4" width="5.5546875" customWidth="true"/>
-    <col min="5" max="5" width="5.77734375" customWidth="true"/>
+    <col min="1" max="1" width="7.5" customWidth="true"/>
+    <col min="2" max="2" width="5.375" customWidth="true"/>
+    <col min="3" max="3" width="6.5" customWidth="true"/>
+    <col min="4" max="4" width="7.5" customWidth="true"/>
+    <col min="5" max="5" width="5.5" customWidth="true"/>
+    <col min="6" max="6" width="5.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -478,80 +491,95 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="0">
         <v>9</v>
       </c>
     </row>
@@ -560,270 +588,318 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="0">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="0">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="0">
+      <c r="F12" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="0">
+      <c r="F13" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="0">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="0">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="0">
+      <c r="E18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="0">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="0">
+      <c r="E20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="0">
         <v>57</v>
       </c>
     </row>
